--- a/sales_revenue_multicollinearity.xlsx
+++ b/sales_revenue_multicollinearity.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +411,7 @@
         <v>500</v>
       </c>
       <c r="C2">
-        <v>417.6405234596766</v>
+        <v>354.6350817808379</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -425,7 +425,7 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>804.0015720836723</v>
+        <v>802.597269789807</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -439,7 +439,7 @@
         <v>1500</v>
       </c>
       <c r="C4">
-        <v>1209.787379841057</v>
+        <v>1236.454528108877</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -453,7 +453,7 @@
         <v>2000</v>
       </c>
       <c r="C5">
-        <v>1622.408931992015</v>
+        <v>1606.44914553787</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -467,7 +467,7 @@
         <v>2500</v>
       </c>
       <c r="C6">
-        <v>2018.6755799015</v>
+        <v>2056.970034227165</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -481,7 +481,7 @@
         <v>3000</v>
       </c>
       <c r="C7">
-        <v>2390.227221201236</v>
+        <v>2338.258708982317</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -495,7 +495,7 @@
         <v>3500</v>
       </c>
       <c r="C8">
-        <v>2809.500884175256</v>
+        <v>2820.117082058877</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -509,7 +509,7 @@
         <v>4000</v>
       </c>
       <c r="C9">
-        <v>3198.486427917023</v>
+        <v>3165.759495452985</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -523,7 +523,7 @@
         <v>4500</v>
       </c>
       <c r="C10">
-        <v>3598.967811482064</v>
+        <v>3556.460142540906</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -537,10 +537,570 @@
         <v>5000</v>
       </c>
       <c r="C11">
-        <v>4004.105985019384</v>
+        <v>3971.057516761779</v>
       </c>
       <c r="D11">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>7732</v>
+      </c>
+      <c r="B12">
+        <v>1659</v>
+      </c>
+      <c r="C12">
+        <v>1311.622373393632</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>15799</v>
+      </c>
+      <c r="B13">
+        <v>4219</v>
+      </c>
+      <c r="C13">
+        <v>3378.008267111487</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>14845</v>
+      </c>
+      <c r="B14">
+        <v>3958</v>
+      </c>
+      <c r="C14">
+        <v>3108.142507960832</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>8264</v>
+      </c>
+      <c r="B15">
+        <v>1423</v>
+      </c>
+      <c r="C15">
+        <v>1183.441324347709</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>18123</v>
+      </c>
+      <c r="B16">
+        <v>4360</v>
+      </c>
+      <c r="C16">
+        <v>3511.283121986523</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>9859</v>
+      </c>
+      <c r="B17">
+        <v>4337</v>
+      </c>
+      <c r="C17">
+        <v>3392.787815686139</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>19019</v>
+      </c>
+      <c r="B18">
+        <v>3745</v>
+      </c>
+      <c r="C18">
+        <v>3070.41260968978</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>14225</v>
+      </c>
+      <c r="B19">
+        <v>1639</v>
+      </c>
+      <c r="C19">
+        <v>1405.994458801529</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>12891</v>
+      </c>
+      <c r="B20">
+        <v>1544</v>
+      </c>
+      <c r="C20">
+        <v>1294.138978557983</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>9373</v>
+      </c>
+      <c r="B21">
+        <v>3591</v>
+      </c>
+      <c r="C21">
+        <v>2863.803758209383</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>10874</v>
+      </c>
+      <c r="B22">
+        <v>1714</v>
+      </c>
+      <c r="C22">
+        <v>1317.662368924473</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>19116</v>
+      </c>
+      <c r="B23">
+        <v>3292</v>
+      </c>
+      <c r="C23">
+        <v>2686.322586346557</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>19935</v>
+      </c>
+      <c r="B24">
+        <v>1151</v>
+      </c>
+      <c r="C24">
+        <v>900.6411526513411</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>11744</v>
+      </c>
+      <c r="B25">
+        <v>3723</v>
+      </c>
+      <c r="C25">
+        <v>3039.522253519121</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>8468</v>
+      </c>
+      <c r="B26">
+        <v>3558</v>
+      </c>
+      <c r="C26">
+        <v>2856.813748903843</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>19650</v>
+      </c>
+      <c r="B27">
+        <v>4531</v>
+      </c>
+      <c r="C27">
+        <v>3673.631951824186</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>5705</v>
+      </c>
+      <c r="B28">
+        <v>3930</v>
+      </c>
+      <c r="C28">
+        <v>3161.81831985872</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>7599</v>
+      </c>
+      <c r="B29">
+        <v>2207</v>
+      </c>
+      <c r="C29">
+        <v>1800.928658409598</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>15327</v>
+      </c>
+      <c r="B30">
+        <v>3076</v>
+      </c>
+      <c r="C30">
+        <v>2461.325001036041</v>
+      </c>
+      <c r="D30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>7222</v>
+      </c>
+      <c r="B31">
+        <v>1802</v>
+      </c>
+      <c r="C31">
+        <v>1530.893524695292</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>12768</v>
+      </c>
+      <c r="B32">
+        <v>3176</v>
+      </c>
+      <c r="C32">
+        <v>2547.145604635181</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>7897</v>
+      </c>
+      <c r="B33">
+        <v>3176</v>
+      </c>
+      <c r="C33">
+        <v>2560.899468172235</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>14893</v>
+      </c>
+      <c r="B34">
+        <v>2956</v>
+      </c>
+      <c r="C34">
+        <v>2458.957534852813</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>5537</v>
+      </c>
+      <c r="B35">
+        <v>4125</v>
+      </c>
+      <c r="C35">
+        <v>3232.612046942878</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>16085</v>
+      </c>
+      <c r="B36">
+        <v>2925</v>
+      </c>
+      <c r="C36">
+        <v>2276.475750075713</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>11216</v>
+      </c>
+      <c r="B37">
+        <v>4622</v>
+      </c>
+      <c r="C37">
+        <v>3746.069835407901</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>11921</v>
+      </c>
+      <c r="B38">
+        <v>4560</v>
+      </c>
+      <c r="C38">
+        <v>3589.343829744292</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>11036</v>
+      </c>
+      <c r="B39">
+        <v>1756</v>
+      </c>
+      <c r="C39">
+        <v>1501.981059282465</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>7163</v>
+      </c>
+      <c r="B40">
+        <v>1273</v>
+      </c>
+      <c r="C40">
+        <v>997.7190509620127</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>10072</v>
+      </c>
+      <c r="B41">
+        <v>3383</v>
+      </c>
+      <c r="C41">
+        <v>2669.027259427962</v>
+      </c>
+      <c r="D41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>9851</v>
+      </c>
+      <c r="B42">
+        <v>1388</v>
+      </c>
+      <c r="C42">
+        <v>1206.547101324019</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>12877</v>
+      </c>
+      <c r="B43">
+        <v>2641</v>
+      </c>
+      <c r="C43">
+        <v>2186.825739571721</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>7046</v>
+      </c>
+      <c r="B44">
+        <v>4114</v>
+      </c>
+      <c r="C44">
+        <v>3384.577948021329</v>
+      </c>
+      <c r="D44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>6871</v>
+      </c>
+      <c r="B45">
+        <v>2466</v>
+      </c>
+      <c r="C45">
+        <v>2018.10223291377</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>12599</v>
+      </c>
+      <c r="B46">
+        <v>3591</v>
+      </c>
+      <c r="C46">
+        <v>2829.738715747265</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>7496</v>
+      </c>
+      <c r="B47">
+        <v>1888</v>
+      </c>
+      <c r="C47">
+        <v>1605.903247654952</v>
+      </c>
+      <c r="D47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>13291</v>
+      </c>
+      <c r="B48">
+        <v>1257</v>
+      </c>
+      <c r="C48">
+        <v>992.199831452431</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>15200</v>
+      </c>
+      <c r="B49">
+        <v>2345</v>
+      </c>
+      <c r="C49">
+        <v>1916.12281978982</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>5755</v>
+      </c>
+      <c r="B50">
+        <v>3105</v>
+      </c>
+      <c r="C50">
+        <v>2531.362598388687</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>5797</v>
+      </c>
+      <c r="B51">
+        <v>3339</v>
+      </c>
+      <c r="C51">
+        <v>2663.449495345459</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/sales_revenue_multicollinearity.xlsx
+++ b/sales_revenue_multicollinearity.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 4\Tutorial 4.1.6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AAD5BA-2D95-4959-8C2A-1E7534B8F8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,8 +50,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,27 +76,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -86,7 +90,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -95,13 +99,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +151,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -173,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -207,9 +220,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,14 +396,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4500</v>
       </c>
@@ -411,13 +433,13 @@
         <v>500</v>
       </c>
       <c r="C2">
-        <v>354.6350817808379</v>
+        <v>355</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5200</v>
       </c>
@@ -425,13 +447,13 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>802.597269789807</v>
+        <v>803</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6100</v>
       </c>
@@ -439,13 +461,13 @@
         <v>1500</v>
       </c>
       <c r="C4">
-        <v>1236.454528108877</v>
+        <v>1236</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6800</v>
       </c>
@@ -453,13 +475,13 @@
         <v>2000</v>
       </c>
       <c r="C5">
-        <v>1606.44914553787</v>
+        <v>1606</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7300</v>
       </c>
@@ -467,13 +489,13 @@
         <v>2500</v>
       </c>
       <c r="C6">
-        <v>2056.970034227165</v>
+        <v>2057</v>
       </c>
       <c r="D6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>8000</v>
       </c>
@@ -481,13 +503,13 @@
         <v>3000</v>
       </c>
       <c r="C7">
-        <v>2338.258708982317</v>
+        <v>2338</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8500</v>
       </c>
@@ -495,13 +517,13 @@
         <v>3500</v>
       </c>
       <c r="C8">
-        <v>2820.117082058877</v>
+        <v>2820</v>
       </c>
       <c r="D8">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9200</v>
       </c>
@@ -509,13 +531,13 @@
         <v>4000</v>
       </c>
       <c r="C9">
-        <v>3165.759495452985</v>
+        <v>3166</v>
       </c>
       <c r="D9">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9700</v>
       </c>
@@ -523,13 +545,13 @@
         <v>4500</v>
       </c>
       <c r="C10">
-        <v>3556.460142540906</v>
+        <v>3556</v>
       </c>
       <c r="D10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10200</v>
       </c>
@@ -537,13 +559,13 @@
         <v>5000</v>
       </c>
       <c r="C11">
-        <v>3971.057516761779</v>
+        <v>3971</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7732</v>
       </c>
@@ -551,13 +573,13 @@
         <v>1659</v>
       </c>
       <c r="C12">
-        <v>1311.622373393632</v>
+        <v>1312</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>15799</v>
       </c>
@@ -565,13 +587,13 @@
         <v>4219</v>
       </c>
       <c r="C13">
-        <v>3378.008267111487</v>
+        <v>3378</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14845</v>
       </c>
@@ -579,13 +601,13 @@
         <v>3958</v>
       </c>
       <c r="C14">
-        <v>3108.142507960832</v>
+        <v>3108</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8264</v>
       </c>
@@ -593,13 +615,13 @@
         <v>1423</v>
       </c>
       <c r="C15">
-        <v>1183.441324347709</v>
+        <v>1183</v>
       </c>
       <c r="D15">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>18123</v>
       </c>
@@ -607,13 +629,13 @@
         <v>4360</v>
       </c>
       <c r="C16">
-        <v>3511.283121986523</v>
+        <v>3511</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9859</v>
       </c>
@@ -621,13 +643,13 @@
         <v>4337</v>
       </c>
       <c r="C17">
-        <v>3392.787815686139</v>
+        <v>3393</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>19019</v>
       </c>
@@ -635,13 +657,13 @@
         <v>3745</v>
       </c>
       <c r="C18">
-        <v>3070.41260968978</v>
+        <v>3070</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>14225</v>
       </c>
@@ -649,13 +671,13 @@
         <v>1639</v>
       </c>
       <c r="C19">
-        <v>1405.994458801529</v>
+        <v>1406</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>12891</v>
       </c>
@@ -663,13 +685,13 @@
         <v>1544</v>
       </c>
       <c r="C20">
-        <v>1294.138978557983</v>
+        <v>1294</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9373</v>
       </c>
@@ -677,13 +699,13 @@
         <v>3591</v>
       </c>
       <c r="C21">
-        <v>2863.803758209383</v>
+        <v>2864</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>10874</v>
       </c>
@@ -691,13 +713,13 @@
         <v>1714</v>
       </c>
       <c r="C22">
-        <v>1317.662368924473</v>
+        <v>1318</v>
       </c>
       <c r="D22">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>19116</v>
       </c>
@@ -705,13 +727,13 @@
         <v>3292</v>
       </c>
       <c r="C23">
-        <v>2686.322586346557</v>
+        <v>2686</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>19935</v>
       </c>
@@ -719,13 +741,13 @@
         <v>1151</v>
       </c>
       <c r="C24">
-        <v>900.6411526513411</v>
+        <v>901</v>
       </c>
       <c r="D24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>11744</v>
       </c>
@@ -733,13 +755,13 @@
         <v>3723</v>
       </c>
       <c r="C25">
-        <v>3039.522253519121</v>
+        <v>3040</v>
       </c>
       <c r="D25">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>8468</v>
       </c>
@@ -747,13 +769,13 @@
         <v>3558</v>
       </c>
       <c r="C26">
-        <v>2856.813748903843</v>
+        <v>2857</v>
       </c>
       <c r="D26">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>19650</v>
       </c>
@@ -761,13 +783,13 @@
         <v>4531</v>
       </c>
       <c r="C27">
-        <v>3673.631951824186</v>
+        <v>3674</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>5705</v>
       </c>
@@ -775,13 +797,13 @@
         <v>3930</v>
       </c>
       <c r="C28">
-        <v>3161.81831985872</v>
+        <v>3162</v>
       </c>
       <c r="D28">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7599</v>
       </c>
@@ -789,13 +811,13 @@
         <v>2207</v>
       </c>
       <c r="C29">
-        <v>1800.928658409598</v>
+        <v>1801</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>15327</v>
       </c>
@@ -803,13 +825,13 @@
         <v>3076</v>
       </c>
       <c r="C30">
-        <v>2461.325001036041</v>
+        <v>2461</v>
       </c>
       <c r="D30">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>7222</v>
       </c>
@@ -817,13 +839,13 @@
         <v>1802</v>
       </c>
       <c r="C31">
-        <v>1530.893524695292</v>
+        <v>1531</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>12768</v>
       </c>
@@ -831,13 +853,13 @@
         <v>3176</v>
       </c>
       <c r="C32">
-        <v>2547.145604635181</v>
+        <v>2547</v>
       </c>
       <c r="D32">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>7897</v>
       </c>
@@ -845,13 +867,13 @@
         <v>3176</v>
       </c>
       <c r="C33">
-        <v>2560.899468172235</v>
+        <v>2561</v>
       </c>
       <c r="D33">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>14893</v>
       </c>
@@ -859,13 +881,13 @@
         <v>2956</v>
       </c>
       <c r="C34">
-        <v>2458.957534852813</v>
+        <v>2459</v>
       </c>
       <c r="D34">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>5537</v>
       </c>
@@ -873,13 +895,13 @@
         <v>4125</v>
       </c>
       <c r="C35">
-        <v>3232.612046942878</v>
+        <v>3233</v>
       </c>
       <c r="D35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>16085</v>
       </c>
@@ -887,13 +909,13 @@
         <v>2925</v>
       </c>
       <c r="C36">
-        <v>2276.475750075713</v>
+        <v>2276</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>11216</v>
       </c>
@@ -901,13 +923,13 @@
         <v>4622</v>
       </c>
       <c r="C37">
-        <v>3746.069835407901</v>
+        <v>3746</v>
       </c>
       <c r="D37">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>11921</v>
       </c>
@@ -915,13 +937,13 @@
         <v>4560</v>
       </c>
       <c r="C38">
-        <v>3589.343829744292</v>
+        <v>3589</v>
       </c>
       <c r="D38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>11036</v>
       </c>
@@ -929,13 +951,13 @@
         <v>1756</v>
       </c>
       <c r="C39">
-        <v>1501.981059282465</v>
+        <v>1502</v>
       </c>
       <c r="D39">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>7163</v>
       </c>
@@ -943,13 +965,13 @@
         <v>1273</v>
       </c>
       <c r="C40">
-        <v>997.7190509620127</v>
+        <v>998</v>
       </c>
       <c r="D40">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>10072</v>
       </c>
@@ -957,13 +979,13 @@
         <v>3383</v>
       </c>
       <c r="C41">
-        <v>2669.027259427962</v>
+        <v>2669</v>
       </c>
       <c r="D41">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>9851</v>
       </c>
@@ -971,13 +993,13 @@
         <v>1388</v>
       </c>
       <c r="C42">
-        <v>1206.547101324019</v>
+        <v>1207</v>
       </c>
       <c r="D42">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>12877</v>
       </c>
@@ -985,13 +1007,13 @@
         <v>2641</v>
       </c>
       <c r="C43">
-        <v>2186.825739571721</v>
+        <v>2187</v>
       </c>
       <c r="D43">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7046</v>
       </c>
@@ -999,13 +1021,13 @@
         <v>4114</v>
       </c>
       <c r="C44">
-        <v>3384.577948021329</v>
+        <v>3385</v>
       </c>
       <c r="D44">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>6871</v>
       </c>
@@ -1013,13 +1035,13 @@
         <v>2466</v>
       </c>
       <c r="C45">
-        <v>2018.10223291377</v>
+        <v>2018</v>
       </c>
       <c r="D45">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>12599</v>
       </c>
@@ -1027,13 +1049,13 @@
         <v>3591</v>
       </c>
       <c r="C46">
-        <v>2829.738715747265</v>
+        <v>2830</v>
       </c>
       <c r="D46">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>7496</v>
       </c>
@@ -1041,13 +1063,13 @@
         <v>1888</v>
       </c>
       <c r="C47">
-        <v>1605.903247654952</v>
+        <v>1606</v>
       </c>
       <c r="D47">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>13291</v>
       </c>
@@ -1055,13 +1077,13 @@
         <v>1257</v>
       </c>
       <c r="C48">
-        <v>992.199831452431</v>
+        <v>992</v>
       </c>
       <c r="D48">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>15200</v>
       </c>
@@ -1069,13 +1091,13 @@
         <v>2345</v>
       </c>
       <c r="C49">
-        <v>1916.12281978982</v>
+        <v>1916</v>
       </c>
       <c r="D49">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>5755</v>
       </c>
@@ -1083,13 +1105,13 @@
         <v>3105</v>
       </c>
       <c r="C50">
-        <v>2531.362598388687</v>
+        <v>2531</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5797</v>
       </c>
@@ -1097,7 +1119,7 @@
         <v>3339</v>
       </c>
       <c r="C51">
-        <v>2663.449495345459</v>
+        <v>2663</v>
       </c>
       <c r="D51">
         <v>7</v>

--- a/sales_revenue_multicollinearity.xlsx
+++ b/sales_revenue_multicollinearity.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 4\Tutorial 4.1.6\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AAD5BA-2D95-4959-8C2A-1E7534B8F8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,12 +57,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -90,7 +86,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -99,21 +95,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +139,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -185,7 +173,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,10 +207,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -396,22 +382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>4500</v>
       </c>
@@ -433,13 +411,13 @@
         <v>500</v>
       </c>
       <c r="C2">
-        <v>355</v>
+        <v>284.4183153784754</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>5200</v>
       </c>
@@ -447,13 +425,13 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>803</v>
+        <v>643.3462176025796</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>6100</v>
       </c>
@@ -461,13 +439,13 @@
         <v>1500</v>
       </c>
       <c r="C4">
-        <v>1236</v>
+        <v>990.2564445290018</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>6800</v>
       </c>
@@ -475,13 +453,13 @@
         <v>2000</v>
       </c>
       <c r="C5">
-        <v>1606</v>
+        <v>1286.692435205159</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>7300</v>
       </c>
@@ -489,13 +467,13 @@
         <v>2500</v>
       </c>
       <c r="C6">
-        <v>2057</v>
+        <v>1648.0238724888</v>
       </c>
       <c r="D6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>8000</v>
       </c>
@@ -503,13 +481,13 @@
         <v>3000</v>
       </c>
       <c r="C7">
-        <v>2338</v>
+        <v>1873.154989732044</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>8500</v>
       </c>
@@ -517,13 +495,13 @@
         <v>3500</v>
       </c>
       <c r="C8">
-        <v>2820</v>
+        <v>2259.322955964227</v>
       </c>
       <c r="D8">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>9200</v>
       </c>
@@ -531,13 +509,13 @@
         <v>4000</v>
       </c>
       <c r="C9">
-        <v>3166</v>
+        <v>2536.530666164093</v>
       </c>
       <c r="D9">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9700</v>
       </c>
@@ -545,13 +523,13 @@
         <v>4500</v>
       </c>
       <c r="C10">
-        <v>3556</v>
+        <v>2848.990223903827</v>
       </c>
       <c r="D10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10200</v>
       </c>
@@ -559,13 +537,13 @@
         <v>5000</v>
       </c>
       <c r="C11">
-        <v>3971</v>
+        <v>3181.479240473031</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>7732</v>
       </c>
@@ -573,13 +551,13 @@
         <v>1659</v>
       </c>
       <c r="C12">
-        <v>1312</v>
+        <v>1051.145999370591</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>15799</v>
       </c>
@@ -587,13 +565,13 @@
         <v>4219</v>
       </c>
       <c r="C13">
-        <v>3378</v>
+        <v>2706.380477038</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>14845</v>
       </c>
@@ -601,13 +579,13 @@
         <v>3958</v>
       </c>
       <c r="C14">
-        <v>3108</v>
+        <v>2490.062321679723</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>8264</v>
       </c>
@@ -615,13 +593,13 @@
         <v>1423</v>
       </c>
       <c r="C15">
-        <v>1183</v>
+        <v>947.7939918105252</v>
       </c>
       <c r="D15">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>18123</v>
       </c>
@@ -629,13 +607,13 @@
         <v>4360</v>
       </c>
       <c r="C16">
-        <v>3511</v>
+        <v>2812.937198010781</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>9859</v>
       </c>
@@ -643,13 +621,13 @@
         <v>4337</v>
       </c>
       <c r="C17">
-        <v>3393</v>
+        <v>2718.398152335682</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>19019</v>
       </c>
@@ -657,13 +635,13 @@
         <v>3745</v>
       </c>
       <c r="C18">
-        <v>3070</v>
+        <v>2459.617544258928</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>14225</v>
       </c>
@@ -671,13 +649,13 @@
         <v>1639</v>
       </c>
       <c r="C19">
-        <v>1406</v>
+        <v>1126.456764569399</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>12891</v>
       </c>
@@ -685,13 +663,13 @@
         <v>1544</v>
       </c>
       <c r="C20">
-        <v>1294</v>
+        <v>1036.724789013372</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>9373</v>
       </c>
@@ -699,13 +677,13 @@
         <v>3591</v>
       </c>
       <c r="C21">
-        <v>2864</v>
+        <v>2294.574803504095</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>10874</v>
       </c>
@@ -713,13 +691,13 @@
         <v>1714</v>
       </c>
       <c r="C22">
-        <v>1318</v>
+        <v>1055.953069489664</v>
       </c>
       <c r="D22">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>19116</v>
       </c>
@@ -727,13 +705,13 @@
         <v>3292</v>
       </c>
       <c r="C23">
-        <v>2686</v>
+        <v>2151.965056638267</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>19935</v>
       </c>
@@ -741,13 +719,13 @@
         <v>1151</v>
       </c>
       <c r="C24">
-        <v>901</v>
+        <v>721.8616962141024</v>
       </c>
       <c r="D24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>11744</v>
       </c>
@@ -755,13 +733,13 @@
         <v>3723</v>
       </c>
       <c r="C25">
-        <v>3040</v>
+        <v>2435.582193663564</v>
       </c>
       <c r="D25">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>8468</v>
       </c>
@@ -769,13 +747,13 @@
         <v>3558</v>
       </c>
       <c r="C26">
-        <v>2857</v>
+        <v>2288.966555031843</v>
       </c>
       <c r="D26">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>19650</v>
       </c>
@@ -783,13 +761,13 @@
         <v>4531</v>
       </c>
       <c r="C27">
-        <v>3674</v>
+        <v>2943.529269578926</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>5705</v>
       </c>
@@ -797,13 +775,13 @@
         <v>3930</v>
       </c>
       <c r="C28">
-        <v>3162</v>
+        <v>2533.325952751378</v>
       </c>
       <c r="D28">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>7599</v>
       </c>
@@ -811,13 +789,13 @@
         <v>2207</v>
       </c>
       <c r="C29">
-        <v>1801</v>
+        <v>1442.922214075026</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>15327</v>
       </c>
@@ -825,13 +803,13 @@
         <v>3076</v>
       </c>
       <c r="C30">
-        <v>2461</v>
+        <v>1971.699927173037</v>
       </c>
       <c r="D30">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>7222</v>
       </c>
@@ -839,13 +817,13 @@
         <v>1802</v>
       </c>
       <c r="C31">
-        <v>1531</v>
+        <v>1226.604058716749</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>12768</v>
       </c>
@@ -853,13 +831,13 @@
         <v>3176</v>
       </c>
       <c r="C32">
-        <v>2547</v>
+        <v>2040.601265546414</v>
       </c>
       <c r="D32">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>7897</v>
       </c>
@@ -867,13 +845,13 @@
         <v>3176</v>
       </c>
       <c r="C33">
-        <v>2561</v>
+        <v>2051.817762490917</v>
       </c>
       <c r="D33">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>14893</v>
       </c>
@@ -881,13 +859,13 @@
         <v>2956</v>
       </c>
       <c r="C34">
-        <v>2459</v>
+        <v>1970.097570466679</v>
       </c>
       <c r="D34">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>5537</v>
       </c>
@@ -895,13 +873,13 @@
         <v>4125</v>
       </c>
       <c r="C35">
-        <v>3233</v>
+        <v>2590.209615827073</v>
       </c>
       <c r="D35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>16085</v>
       </c>
@@ -909,13 +887,13 @@
         <v>2925</v>
       </c>
       <c r="C36">
-        <v>2276</v>
+        <v>1823.481931834958</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>11216</v>
       </c>
@@ -923,13 +901,13 @@
         <v>4622</v>
       </c>
       <c r="C37">
-        <v>3746</v>
+        <v>3001.2141110078</v>
       </c>
       <c r="D37">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>11921</v>
       </c>
@@ -937,13 +915,13 @@
         <v>4560</v>
       </c>
       <c r="C38">
-        <v>3589</v>
+        <v>2875.429109558728</v>
       </c>
       <c r="D38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>11036</v>
       </c>
@@ -951,13 +929,13 @@
         <v>1756</v>
       </c>
       <c r="C39">
-        <v>1502</v>
+        <v>1203.369886474564</v>
       </c>
       <c r="D39">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>7163</v>
       </c>
@@ -965,13 +943,13 @@
         <v>1273</v>
       </c>
       <c r="C40">
-        <v>998</v>
+        <v>799.5759964724464</v>
       </c>
       <c r="D40">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>10072</v>
       </c>
@@ -979,13 +957,13 @@
         <v>3383</v>
       </c>
       <c r="C41">
-        <v>2669</v>
+        <v>2138.345024634228</v>
       </c>
       <c r="D41">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>9851</v>
       </c>
@@ -993,13 +971,13 @@
         <v>1388</v>
       </c>
       <c r="C42">
-        <v>1207</v>
+        <v>967.0222722868165</v>
       </c>
       <c r="D42">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>12877</v>
       </c>
@@ -1007,13 +985,13 @@
         <v>2641</v>
       </c>
       <c r="C43">
-        <v>2187</v>
+        <v>1752.177058402044</v>
       </c>
       <c r="D43">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>7046</v>
       </c>
@@ -1021,13 +999,13 @@
         <v>4114</v>
       </c>
       <c r="C44">
-        <v>3385</v>
+        <v>2711.988725510252</v>
       </c>
       <c r="D44">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>6871</v>
       </c>
@@ -1035,13 +1013,13 @@
         <v>2466</v>
       </c>
       <c r="C45">
-        <v>2018</v>
+        <v>1616.777916714826</v>
       </c>
       <c r="D45">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>12599</v>
       </c>
@@ -1049,13 +1027,13 @@
         <v>3591</v>
       </c>
       <c r="C46">
-        <v>2830</v>
+        <v>2267.334739496016</v>
       </c>
       <c r="D46">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>7496</v>
       </c>
@@ -1063,13 +1041,13 @@
         <v>1888</v>
       </c>
       <c r="C47">
-        <v>1606</v>
+        <v>1286.692435205159</v>
       </c>
       <c r="D47">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>13291</v>
       </c>
@@ -1077,13 +1055,13 @@
         <v>1257</v>
       </c>
       <c r="C48">
-        <v>992</v>
+        <v>794.7689263533736</v>
       </c>
       <c r="D48">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>15200</v>
       </c>
@@ -1091,13 +1069,13 @@
         <v>2345</v>
       </c>
       <c r="C49">
-        <v>1916</v>
+        <v>1535.057724690588</v>
       </c>
       <c r="D49">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>5755</v>
       </c>
@@ -1105,13 +1083,13 @@
         <v>3105</v>
       </c>
       <c r="C50">
-        <v>2531</v>
+        <v>2027.782411895553</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>5797</v>
       </c>
@@ -1119,7 +1097,7 @@
         <v>3339</v>
       </c>
       <c r="C51">
-        <v>2663</v>
+        <v>2133.537954515155</v>
       </c>
       <c r="D51">
         <v>7</v>

--- a/sales_revenue_multicollinearity.xlsx
+++ b/sales_revenue_multicollinearity.xlsx
@@ -411,7 +411,7 @@
         <v>500</v>
       </c>
       <c r="C2">
-        <v>284.4183153784754</v>
+        <v>222.1730525905963</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -425,7 +425,7 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>643.3462176025796</v>
+        <v>502.5491865640813</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -439,7 +439,7 @@
         <v>1500</v>
       </c>
       <c r="C4">
-        <v>990.2564445290018</v>
+        <v>773.5377267661326</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -453,7 +453,7 @@
         <v>2000</v>
       </c>
       <c r="C5">
-        <v>1286.692435205159</v>
+        <v>1005.098373128162</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -467,7 +467,7 @@
         <v>2500</v>
       </c>
       <c r="C6">
-        <v>1648.0238724888</v>
+        <v>1287.352025855934</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -481,7 +481,7 @@
         <v>3000</v>
       </c>
       <c r="C7">
-        <v>1873.154989732044</v>
+        <v>1463.212949174125</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -495,7 +495,7 @@
         <v>3500</v>
       </c>
       <c r="C8">
-        <v>2259.322955964227</v>
+        <v>1764.867629029525</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -509,7 +509,7 @@
         <v>4000</v>
       </c>
       <c r="C9">
-        <v>2536.530666164093</v>
+        <v>1981.408125357261</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -523,7 +523,7 @@
         <v>4500</v>
       </c>
       <c r="C10">
-        <v>2848.990223903827</v>
+        <v>2225.485563414537</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -537,7 +537,7 @@
         <v>5000</v>
       </c>
       <c r="C11">
-        <v>3181.479240473031</v>
+        <v>2485.208991090868</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -551,7 +551,7 @@
         <v>1659</v>
       </c>
       <c r="C12">
-        <v>1051.145999370591</v>
+        <v>821.1015352080631</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -565,7 +565,7 @@
         <v>4219</v>
       </c>
       <c r="C13">
-        <v>2706.380477038</v>
+        <v>2114.086117326858</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -579,7 +579,7 @@
         <v>3958</v>
       </c>
       <c r="C14">
-        <v>2490.062321679723</v>
+        <v>1945.109429441052</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -593,7 +593,7 @@
         <v>1423</v>
       </c>
       <c r="C15">
-        <v>947.7939918105252</v>
+        <v>740.3682287737337</v>
       </c>
       <c r="D15">
         <v>19</v>
@@ -607,7 +607,7 @@
         <v>4360</v>
       </c>
       <c r="C16">
-        <v>2812.937198010781</v>
+        <v>2197.322782100236</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -621,7 +621,7 @@
         <v>4337</v>
       </c>
       <c r="C17">
-        <v>2718.398152335682</v>
+        <v>2123.473711098291</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -635,7 +635,7 @@
         <v>3745</v>
       </c>
       <c r="C18">
-        <v>2459.617544258928</v>
+        <v>1921.327525220086</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -649,7 +649,7 @@
         <v>1639</v>
       </c>
       <c r="C19">
-        <v>1126.456764569399</v>
+        <v>879.9304561757143</v>
       </c>
       <c r="D19">
         <v>9</v>
@@ -663,7 +663,7 @@
         <v>1544</v>
       </c>
       <c r="C20">
-        <v>1036.724789013372</v>
+        <v>809.8364226823422</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -677,7 +677,7 @@
         <v>3591</v>
       </c>
       <c r="C21">
-        <v>2294.574803504095</v>
+        <v>1792.404570759065</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -691,7 +691,7 @@
         <v>1714</v>
       </c>
       <c r="C22">
-        <v>1055.953069489664</v>
+        <v>824.8565727166366</v>
       </c>
       <c r="D22">
         <v>18</v>
@@ -705,7 +705,7 @@
         <v>3292</v>
       </c>
       <c r="C23">
-        <v>2151.965056638267</v>
+        <v>1681.005124671385</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -719,7 +719,7 @@
         <v>1151</v>
       </c>
       <c r="C24">
-        <v>721.8616962141024</v>
+        <v>563.8814658707811</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -733,7 +733,7 @@
         <v>3723</v>
       </c>
       <c r="C25">
-        <v>2435.582193663564</v>
+        <v>1902.552337677219</v>
       </c>
       <c r="D25">
         <v>15</v>
@@ -747,7 +747,7 @@
         <v>3558</v>
       </c>
       <c r="C26">
-        <v>2288.966555031843</v>
+        <v>1788.023693665729</v>
       </c>
       <c r="D26">
         <v>18</v>
@@ -761,7 +761,7 @@
         <v>4531</v>
       </c>
       <c r="C27">
-        <v>2943.529269578926</v>
+        <v>2299.334634416481</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -775,7 +775,7 @@
         <v>3930</v>
       </c>
       <c r="C28">
-        <v>2533.325952751378</v>
+        <v>1978.904767018212</v>
       </c>
       <c r="D28">
         <v>12</v>
@@ -789,7 +789,7 @@
         <v>2207</v>
       </c>
       <c r="C29">
-        <v>1442.922214075026</v>
+        <v>1127.1370921568</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -803,7 +803,7 @@
         <v>3076</v>
       </c>
       <c r="C30">
-        <v>1971.699927173037</v>
+        <v>1540.191218099881</v>
       </c>
       <c r="D30">
         <v>14</v>
@@ -817,7 +817,7 @@
         <v>1802</v>
       </c>
       <c r="C31">
-        <v>1226.604058716749</v>
+        <v>958.1604042709943</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -831,7 +831,7 @@
         <v>3176</v>
       </c>
       <c r="C32">
-        <v>2040.601265546414</v>
+        <v>1594.013422389433</v>
       </c>
       <c r="D32">
         <v>15</v>
@@ -845,7 +845,7 @@
         <v>3176</v>
       </c>
       <c r="C33">
-        <v>2051.817762490917</v>
+        <v>1602.775176576105</v>
       </c>
       <c r="D33">
         <v>7</v>
@@ -859,7 +859,7 @@
         <v>2956</v>
       </c>
       <c r="C34">
-        <v>1970.097570466679</v>
+        <v>1538.939538930356</v>
       </c>
       <c r="D34">
         <v>16</v>
@@ -873,7 +873,7 @@
         <v>4125</v>
       </c>
       <c r="C35">
-        <v>2590.209615827073</v>
+        <v>2023.339377536332</v>
       </c>
       <c r="D35">
         <v>15</v>
@@ -887,7 +887,7 @@
         <v>2925</v>
       </c>
       <c r="C36">
-        <v>1823.481931834958</v>
+        <v>1424.410894918866</v>
       </c>
       <c r="D36">
         <v>12</v>
@@ -901,7 +901,7 @@
         <v>4622</v>
       </c>
       <c r="C37">
-        <v>3001.2141110078</v>
+        <v>2344.395084519363</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -915,7 +915,7 @@
         <v>4560</v>
       </c>
       <c r="C38">
-        <v>2875.429109558728</v>
+        <v>2246.138269711691</v>
       </c>
       <c r="D38">
         <v>7</v>
@@ -929,7 +929,7 @@
         <v>1756</v>
       </c>
       <c r="C39">
-        <v>1203.369886474564</v>
+        <v>940.0110563128895</v>
       </c>
       <c r="D39">
         <v>14</v>
@@ -943,7 +943,7 @@
         <v>1273</v>
       </c>
       <c r="C40">
-        <v>799.5759964724464</v>
+        <v>624.5879055927186</v>
       </c>
       <c r="D40">
         <v>7</v>
@@ -957,7 +957,7 @@
         <v>3383</v>
       </c>
       <c r="C41">
-        <v>2138.345024634228</v>
+        <v>1670.365851730427</v>
       </c>
       <c r="D41">
         <v>19</v>
@@ -971,7 +971,7 @@
         <v>1388</v>
       </c>
       <c r="C42">
-        <v>967.0222722868165</v>
+        <v>755.3883788080275</v>
       </c>
       <c r="D42">
         <v>8</v>
@@ -985,7 +985,7 @@
         <v>2641</v>
       </c>
       <c r="C43">
-        <v>1752.177058402044</v>
+        <v>1368.711171875025</v>
       </c>
       <c r="D43">
         <v>19</v>
@@ -999,7 +999,7 @@
         <v>4114</v>
       </c>
       <c r="C44">
-        <v>2711.988725510252</v>
+        <v>2118.466994420194</v>
       </c>
       <c r="D44">
         <v>16</v>
@@ -1013,7 +1013,7 @@
         <v>2466</v>
       </c>
       <c r="C45">
-        <v>1616.777916714826</v>
+        <v>1262.944282050206</v>
       </c>
       <c r="D45">
         <v>8</v>
@@ -1027,7 +1027,7 @@
         <v>3591</v>
       </c>
       <c r="C46">
-        <v>2267.334739496016</v>
+        <v>1771.126024877149</v>
       </c>
       <c r="D46">
         <v>7</v>
@@ -1041,7 +1041,7 @@
         <v>1888</v>
       </c>
       <c r="C47">
-        <v>1286.692435205159</v>
+        <v>1005.098373128162</v>
       </c>
       <c r="D47">
         <v>19</v>
@@ -1055,7 +1055,7 @@
         <v>1257</v>
       </c>
       <c r="C48">
-        <v>794.7689263533736</v>
+        <v>620.8328680841452</v>
       </c>
       <c r="D48">
         <v>8</v>
@@ -1069,7 +1069,7 @@
         <v>2345</v>
       </c>
       <c r="C49">
-        <v>1535.057724690588</v>
+        <v>1199.108644404457</v>
       </c>
       <c r="D49">
         <v>9</v>
@@ -1083,7 +1083,7 @@
         <v>3105</v>
       </c>
       <c r="C50">
-        <v>2027.782411895553</v>
+        <v>1583.999989033237</v>
       </c>
       <c r="D50">
         <v>6</v>
@@ -1097,7 +1097,7 @@
         <v>3339</v>
       </c>
       <c r="C51">
-        <v>2133.537954515155</v>
+        <v>1666.610814221853</v>
       </c>
       <c r="D51">
         <v>7</v>

--- a/sales_revenue_multicollinearity.xlsx
+++ b/sales_revenue_multicollinearity.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 4\Tutorial 4.1.6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E267C7C-3393-4ABC-8521-06E19705C30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,8 +50,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,27 +76,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -86,7 +90,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -95,13 +99,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +151,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -173,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -207,9 +220,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,14 +396,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4500</v>
       </c>
@@ -411,13 +432,13 @@
         <v>500</v>
       </c>
       <c r="C2">
-        <v>222.1730525905963</v>
+        <v>222</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5200</v>
       </c>
@@ -425,13 +446,13 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>502.5491865640813</v>
+        <v>503</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6100</v>
       </c>
@@ -439,13 +460,13 @@
         <v>1500</v>
       </c>
       <c r="C4">
-        <v>773.5377267661326</v>
+        <v>774</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6800</v>
       </c>
@@ -453,13 +474,13 @@
         <v>2000</v>
       </c>
       <c r="C5">
-        <v>1005.098373128162</v>
+        <v>1005</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7300</v>
       </c>
@@ -467,13 +488,13 @@
         <v>2500</v>
       </c>
       <c r="C6">
-        <v>1287.352025855934</v>
+        <v>1287</v>
       </c>
       <c r="D6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>8000</v>
       </c>
@@ -481,13 +502,13 @@
         <v>3000</v>
       </c>
       <c r="C7">
-        <v>1463.212949174125</v>
+        <v>1463</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8500</v>
       </c>
@@ -495,13 +516,13 @@
         <v>3500</v>
       </c>
       <c r="C8">
-        <v>1764.867629029525</v>
+        <v>1765</v>
       </c>
       <c r="D8">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9200</v>
       </c>
@@ -509,13 +530,13 @@
         <v>4000</v>
       </c>
       <c r="C9">
-        <v>1981.408125357261</v>
+        <v>1981</v>
       </c>
       <c r="D9">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9700</v>
       </c>
@@ -523,13 +544,13 @@
         <v>4500</v>
       </c>
       <c r="C10">
-        <v>2225.485563414537</v>
+        <v>2225</v>
       </c>
       <c r="D10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10200</v>
       </c>
@@ -537,13 +558,13 @@
         <v>5000</v>
       </c>
       <c r="C11">
-        <v>2485.208991090868</v>
+        <v>2485</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7732</v>
       </c>
@@ -551,13 +572,13 @@
         <v>1659</v>
       </c>
       <c r="C12">
-        <v>821.1015352080631</v>
+        <v>821</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>15799</v>
       </c>
@@ -565,13 +586,13 @@
         <v>4219</v>
       </c>
       <c r="C13">
-        <v>2114.086117326858</v>
+        <v>2114</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14845</v>
       </c>
@@ -579,13 +600,13 @@
         <v>3958</v>
       </c>
       <c r="C14">
-        <v>1945.109429441052</v>
+        <v>1945</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8264</v>
       </c>
@@ -593,13 +614,13 @@
         <v>1423</v>
       </c>
       <c r="C15">
-        <v>740.3682287737337</v>
+        <v>740</v>
       </c>
       <c r="D15">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>18123</v>
       </c>
@@ -607,13 +628,13 @@
         <v>4360</v>
       </c>
       <c r="C16">
-        <v>2197.322782100236</v>
+        <v>2197</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9859</v>
       </c>
@@ -621,13 +642,13 @@
         <v>4337</v>
       </c>
       <c r="C17">
-        <v>2123.473711098291</v>
+        <v>2123</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>19019</v>
       </c>
@@ -635,13 +656,13 @@
         <v>3745</v>
       </c>
       <c r="C18">
-        <v>1921.327525220086</v>
+        <v>1921</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>14225</v>
       </c>
@@ -649,13 +670,13 @@
         <v>1639</v>
       </c>
       <c r="C19">
-        <v>879.9304561757143</v>
+        <v>880</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>12891</v>
       </c>
@@ -663,13 +684,13 @@
         <v>1544</v>
       </c>
       <c r="C20">
-        <v>809.8364226823422</v>
+        <v>810</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9373</v>
       </c>
@@ -677,13 +698,13 @@
         <v>3591</v>
       </c>
       <c r="C21">
-        <v>1792.404570759065</v>
+        <v>1792</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>10874</v>
       </c>
@@ -691,13 +712,13 @@
         <v>1714</v>
       </c>
       <c r="C22">
-        <v>824.8565727166366</v>
+        <v>825</v>
       </c>
       <c r="D22">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>19116</v>
       </c>
@@ -705,13 +726,13 @@
         <v>3292</v>
       </c>
       <c r="C23">
-        <v>1681.005124671385</v>
+        <v>1681</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>19935</v>
       </c>
@@ -719,13 +740,13 @@
         <v>1151</v>
       </c>
       <c r="C24">
-        <v>563.8814658707811</v>
+        <v>564</v>
       </c>
       <c r="D24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>11744</v>
       </c>
@@ -733,13 +754,13 @@
         <v>3723</v>
       </c>
       <c r="C25">
-        <v>1902.552337677219</v>
+        <v>1903</v>
       </c>
       <c r="D25">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>8468</v>
       </c>
@@ -747,13 +768,13 @@
         <v>3558</v>
       </c>
       <c r="C26">
-        <v>1788.023693665729</v>
+        <v>1788</v>
       </c>
       <c r="D26">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>19650</v>
       </c>
@@ -761,13 +782,13 @@
         <v>4531</v>
       </c>
       <c r="C27">
-        <v>2299.334634416481</v>
+        <v>2299</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>5705</v>
       </c>
@@ -775,13 +796,13 @@
         <v>3930</v>
       </c>
       <c r="C28">
-        <v>1978.904767018212</v>
+        <v>1979</v>
       </c>
       <c r="D28">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7599</v>
       </c>
@@ -789,13 +810,13 @@
         <v>2207</v>
       </c>
       <c r="C29">
-        <v>1127.1370921568</v>
+        <v>1127</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>15327</v>
       </c>
@@ -803,13 +824,13 @@
         <v>3076</v>
       </c>
       <c r="C30">
-        <v>1540.191218099881</v>
+        <v>1540</v>
       </c>
       <c r="D30">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>7222</v>
       </c>
@@ -817,13 +838,13 @@
         <v>1802</v>
       </c>
       <c r="C31">
-        <v>958.1604042709943</v>
+        <v>958</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>12768</v>
       </c>
@@ -831,13 +852,13 @@
         <v>3176</v>
       </c>
       <c r="C32">
-        <v>1594.013422389433</v>
+        <v>1594</v>
       </c>
       <c r="D32">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>7897</v>
       </c>
@@ -845,13 +866,13 @@
         <v>3176</v>
       </c>
       <c r="C33">
-        <v>1602.775176576105</v>
+        <v>1603</v>
       </c>
       <c r="D33">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>14893</v>
       </c>
@@ -859,13 +880,13 @@
         <v>2956</v>
       </c>
       <c r="C34">
-        <v>1538.939538930356</v>
+        <v>1539</v>
       </c>
       <c r="D34">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>5537</v>
       </c>
@@ -873,13 +894,13 @@
         <v>4125</v>
       </c>
       <c r="C35">
-        <v>2023.339377536332</v>
+        <v>2023</v>
       </c>
       <c r="D35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>16085</v>
       </c>
@@ -887,13 +908,13 @@
         <v>2925</v>
       </c>
       <c r="C36">
-        <v>1424.410894918866</v>
+        <v>1424</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>11216</v>
       </c>
@@ -901,13 +922,13 @@
         <v>4622</v>
       </c>
       <c r="C37">
-        <v>2344.395084519363</v>
+        <v>2344</v>
       </c>
       <c r="D37">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>11921</v>
       </c>
@@ -915,13 +936,13 @@
         <v>4560</v>
       </c>
       <c r="C38">
-        <v>2246.138269711691</v>
+        <v>2246</v>
       </c>
       <c r="D38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>11036</v>
       </c>
@@ -929,13 +950,13 @@
         <v>1756</v>
       </c>
       <c r="C39">
-        <v>940.0110563128895</v>
+        <v>940</v>
       </c>
       <c r="D39">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>7163</v>
       </c>
@@ -943,13 +964,13 @@
         <v>1273</v>
       </c>
       <c r="C40">
-        <v>624.5879055927186</v>
+        <v>625</v>
       </c>
       <c r="D40">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>10072</v>
       </c>
@@ -957,13 +978,13 @@
         <v>3383</v>
       </c>
       <c r="C41">
-        <v>1670.365851730427</v>
+        <v>1670</v>
       </c>
       <c r="D41">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>9851</v>
       </c>
@@ -971,13 +992,13 @@
         <v>1388</v>
       </c>
       <c r="C42">
-        <v>755.3883788080275</v>
+        <v>755</v>
       </c>
       <c r="D42">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>12877</v>
       </c>
@@ -985,13 +1006,13 @@
         <v>2641</v>
       </c>
       <c r="C43">
-        <v>1368.711171875025</v>
+        <v>1369</v>
       </c>
       <c r="D43">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7046</v>
       </c>
@@ -999,13 +1020,13 @@
         <v>4114</v>
       </c>
       <c r="C44">
-        <v>2118.466994420194</v>
+        <v>2118</v>
       </c>
       <c r="D44">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>6871</v>
       </c>
@@ -1013,13 +1034,13 @@
         <v>2466</v>
       </c>
       <c r="C45">
-        <v>1262.944282050206</v>
+        <v>1263</v>
       </c>
       <c r="D45">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>12599</v>
       </c>
@@ -1027,13 +1048,13 @@
         <v>3591</v>
       </c>
       <c r="C46">
-        <v>1771.126024877149</v>
+        <v>1771</v>
       </c>
       <c r="D46">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>7496</v>
       </c>
@@ -1041,13 +1062,13 @@
         <v>1888</v>
       </c>
       <c r="C47">
-        <v>1005.098373128162</v>
+        <v>1005</v>
       </c>
       <c r="D47">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>13291</v>
       </c>
@@ -1055,13 +1076,13 @@
         <v>1257</v>
       </c>
       <c r="C48">
-        <v>620.8328680841452</v>
+        <v>621</v>
       </c>
       <c r="D48">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>15200</v>
       </c>
@@ -1069,13 +1090,13 @@
         <v>2345</v>
       </c>
       <c r="C49">
-        <v>1199.108644404457</v>
+        <v>1199</v>
       </c>
       <c r="D49">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>5755</v>
       </c>
@@ -1083,13 +1104,13 @@
         <v>3105</v>
       </c>
       <c r="C50">
-        <v>1583.999989033237</v>
+        <v>1584</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5797</v>
       </c>
@@ -1097,7 +1118,7 @@
         <v>3339</v>
       </c>
       <c r="C51">
-        <v>1666.610814221853</v>
+        <v>1667</v>
       </c>
       <c r="D51">
         <v>7</v>

--- a/sales_revenue_multicollinearity.xlsx
+++ b/sales_revenue_multicollinearity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 4\Tutorial 4.1.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E267C7C-3393-4ABC-8521-06E19705C30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D969327-44EB-40D1-B407-BD92F09CEFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,14 +400,12 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -432,7 +430,7 @@
         <v>500</v>
       </c>
       <c r="C2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -488,7 +486,7 @@
         <v>2500</v>
       </c>
       <c r="C6">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -530,7 +528,7 @@
         <v>4000</v>
       </c>
       <c r="C9">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -670,7 +668,7 @@
         <v>1639</v>
       </c>
       <c r="C19">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D19">
         <v>9</v>
@@ -684,7 +682,7 @@
         <v>1544</v>
       </c>
       <c r="C20">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -698,7 +696,7 @@
         <v>3591</v>
       </c>
       <c r="C21">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -712,7 +710,7 @@
         <v>1714</v>
       </c>
       <c r="C22">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D22">
         <v>18</v>
@@ -726,7 +724,7 @@
         <v>3292</v>
       </c>
       <c r="C23">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -740,7 +738,7 @@
         <v>1151</v>
       </c>
       <c r="C24">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -768,7 +766,7 @@
         <v>3558</v>
       </c>
       <c r="C26">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D26">
         <v>18</v>
@@ -782,7 +780,7 @@
         <v>4531</v>
       </c>
       <c r="C27">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -866,7 +864,7 @@
         <v>3176</v>
       </c>
       <c r="C33">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D33">
         <v>7</v>
@@ -894,7 +892,7 @@
         <v>4125</v>
       </c>
       <c r="C35">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D35">
         <v>15</v>
@@ -908,7 +906,7 @@
         <v>2925</v>
       </c>
       <c r="C36">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D36">
         <v>12</v>
@@ -936,7 +934,7 @@
         <v>4560</v>
       </c>
       <c r="C38">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D38">
         <v>7</v>
@@ -950,7 +948,7 @@
         <v>1756</v>
       </c>
       <c r="C39">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D39">
         <v>14</v>
@@ -978,7 +976,7 @@
         <v>3383</v>
       </c>
       <c r="C41">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D41">
         <v>19</v>
@@ -1020,7 +1018,7 @@
         <v>4114</v>
       </c>
       <c r="C44">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="D44">
         <v>16</v>
@@ -1090,7 +1088,7 @@
         <v>2345</v>
       </c>
       <c r="C49">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D49">
         <v>9</v>
